--- a/UncertaintyAnalysis_PROPHET2_test18.xlsx
+++ b/UncertaintyAnalysis_PROPHET2_test18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\falcone\project\raven\PROPHET2\Tabelle_range\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcone\Documents\GitHub\PROPHET2Plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -715,52 +715,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,158 +1128,158 @@
       <c r="G4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="28" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="37">
+      <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="29">
         <v>100</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="34"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <v>4</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="29">
         <v>0.156</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="29" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="30" t="s">
@@ -1288,7 +1288,7 @@
       <c r="E15" s="30">
         <v>400</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="39" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="30" t="s">
@@ -1297,95 +1297,95 @@
       <c r="H15" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="40"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="37">
+      <c r="B17" s="33">
         <v>5</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="29" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="37">
+      <c r="B19" s="33">
         <v>6</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
@@ -1510,52 +1510,52 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="37">
+      <c r="B26" s="33">
         <v>12</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="29" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="29" t="s">
         <v>69</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="39"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="42"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="30"/>
       <c r="H28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
@@ -1589,30 +1589,11 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="D9:D14"/>
@@ -1625,11 +1606,30 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E5:E8"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
